--- a/public/assets/templates/spd.xlsx
+++ b/public/assets/templates/spd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\kemenkop\sistem-perjalanan-dinas-v2\public\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\kemenkop\pengajuan-flow\sistem-perjalanan-dinas-v2\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5FD6A-A090-4D9B-B838-60C68CCC9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F540B0B7-A8E7-4117-9136-04D148F8CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,10 +668,27 @@
     <t xml:space="preserve">                            16 Juni 2023</t>
   </si>
   <si>
-    <t>2823  /SPD/DEP.4/ VI  /2023</t>
-  </si>
-  <si>
     <t>4457.QMA.001.053.C.524111</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2823</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  /SPD/DEP.4/ VI  /2023</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1091,10 +1108,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2356,7 +2373,7 @@
   <dimension ref="B3:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="95" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8"/>
@@ -2411,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -2678,11 +2695,11 @@
         <v>16</v>
       </c>
       <c r="G26" s="38"/>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="2:10" ht="32.25" customHeight="1">
       <c r="B27" s="25" t="s">
@@ -2801,7 +2818,7 @@
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I34" s="107"/>
       <c r="J34" s="107"/>
